--- a/DB設計書.xlsx
+++ b/DB設計書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="20475" windowHeight="9840" activeTab="9"/>
+    <workbookView xWindow="600" yWindow="105" windowWidth="20475" windowHeight="9840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="E-R図 " sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="246">
   <si>
     <t>　　森永製品ネット販売システム</t>
     <rPh sb="2" eb="4">
@@ -1384,6 +1384,47 @@
   </si>
   <si>
     <t>TIMESTAMP(12)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rtime</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>星</t>
+    <rPh sb="0" eb="1">
+      <t>ホシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rstar</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>INT(1)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>投稿日時</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1493,7 +1534,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1518,11 +1559,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -7577,7 +7621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
@@ -7594,85 +7638,85 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -7817,85 +7861,85 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -8051,31 +8095,31 @@
       <c r="B20" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="8"/>
       <c r="G20" s="1" t="s">
         <v>187</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8104,85 +8148,85 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -8416,14 +8460,14 @@
       <c r="B24" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7" t="s">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="8"/>
       <c r="G24" s="1" t="s">
         <v>85</v>
       </c>
@@ -8435,14 +8479,14 @@
       <c r="B25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7" t="s">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F25" s="7"/>
+      <c r="F25" s="8"/>
       <c r="G25" s="1" t="s">
         <v>84</v>
       </c>
@@ -8454,35 +8498,35 @@
       <c r="B26" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7" t="s">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F26" s="7"/>
+      <c r="F26" s="8"/>
       <c r="G26" s="1" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8511,85 +8555,85 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -8787,14 +8831,14 @@
       <c r="B22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7" t="s">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="8"/>
       <c r="G22" s="1" t="s">
         <v>85</v>
       </c>
@@ -8806,14 +8850,14 @@
       <c r="B23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7" t="s">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="8"/>
       <c r="G23" s="1" t="s">
         <v>89</v>
       </c>
@@ -8825,14 +8869,14 @@
       <c r="B24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7" t="s">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="8"/>
       <c r="G24" s="1" t="s">
         <v>86</v>
       </c>
@@ -8844,14 +8888,14 @@
       <c r="B25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7" t="s">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="7"/>
+      <c r="F25" s="8"/>
       <c r="G25" s="1" t="s">
         <v>90</v>
       </c>
@@ -8887,20 +8931,28 @@
       <c r="B29" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7" t="s">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F29" s="7"/>
+      <c r="F29" s="8"/>
       <c r="G29" s="1" t="s">
         <v>150</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="C2:G2"/>
@@ -8914,14 +8966,6 @@
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8950,85 +8994,85 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -9150,14 +9194,14 @@
       <c r="B18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7" t="s">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="8"/>
       <c r="G18" s="1" t="s">
         <v>91</v>
       </c>
@@ -9169,20 +9213,26 @@
       <c r="B19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="8"/>
       <c r="G19" s="1" t="s">
         <v>92</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
@@ -9190,12 +9240,6 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9207,8 +9251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9224,85 +9268,85 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -9367,9 +9411,7 @@
       <c r="D13" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>190</v>
-      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
@@ -9426,9 +9468,7 @@
       <c r="D16" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>190</v>
-      </c>
+      <c r="E16" s="2"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
@@ -9577,31 +9617,31 @@
       <c r="B26" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7" t="s">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F26" s="7"/>
+      <c r="F26" s="8"/>
       <c r="G26" s="1" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9630,85 +9670,85 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -9904,14 +9944,14 @@
       <c r="B22" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7" t="s">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="8"/>
       <c r="G22" s="1" t="s">
         <v>151</v>
       </c>
@@ -9923,14 +9963,14 @@
       <c r="B23" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7" t="s">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="8"/>
       <c r="G23" s="1" t="s">
         <v>152</v>
       </c>
@@ -9942,20 +9982,26 @@
       <c r="B24" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7" t="s">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="8"/>
       <c r="G24" s="1" t="s">
         <v>153</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="C8:G8"/>
@@ -9965,12 +10011,6 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9999,85 +10039,85 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -10159,14 +10199,14 @@
       <c r="B16" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="12" t="s">
+      <c r="D16" s="14"/>
+      <c r="E16" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="13"/>
+      <c r="F16" s="14"/>
       <c r="G16" s="3" t="s">
         <v>18</v>
       </c>
@@ -10178,14 +10218,14 @@
       <c r="B17" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="10" t="s">
+      <c r="D17" s="12"/>
+      <c r="E17" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="F17" s="11"/>
+      <c r="F17" s="12"/>
       <c r="G17" s="1" t="s">
         <v>92</v>
       </c>
@@ -10197,20 +10237,26 @@
       <c r="B18" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="10" t="s">
+      <c r="D18" s="12"/>
+      <c r="E18" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="F18" s="11"/>
+      <c r="F18" s="12"/>
       <c r="G18" s="1" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
@@ -10218,12 +10264,6 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10252,85 +10292,85 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -10488,14 +10528,14 @@
       <c r="B20" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="8"/>
       <c r="G20" s="1" t="s">
         <v>152</v>
       </c>
@@ -10507,20 +10547,26 @@
       <c r="B21" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="8"/>
       <c r="G21" s="1" t="s">
         <v>150</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
@@ -10528,12 +10574,6 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10543,10 +10583,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G21"/>
+  <dimension ref="A2:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10562,85 +10602,85 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -10730,111 +10770,157 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
+      <c r="A15" s="7">
         <v>4</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="7">
+        <v>5</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F16" s="7">
+        <v>3</v>
+      </c>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="7">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="1">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="7">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C21" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9" t="s">
+      <c r="D21" s="9"/>
+      <c r="E21" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="3" t="s">
+      <c r="F21" s="9"/>
+      <c r="G21" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
         <v>1</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C22" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="1" t="s">
+      <c r="F22" s="8"/>
+      <c r="G22" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="1">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
         <v>2</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C23" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="1" t="s">
+      <c r="F23" s="8"/>
+      <c r="G23" s="1" t="s">
         <v>152</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
@@ -10842,12 +10928,6 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DB設計書.xlsx
+++ b/DB設計書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="20475" windowHeight="9840" activeTab="4"/>
+    <workbookView xWindow="600" yWindow="105" windowWidth="20475" windowHeight="9840" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="E-R図 " sheetId="4" r:id="rId1"/>
@@ -14,17 +14,16 @@
     <sheet name="注文" sheetId="9" r:id="rId5"/>
     <sheet name="注文明細" sheetId="10" r:id="rId6"/>
     <sheet name="ジャンル" sheetId="11" r:id="rId7"/>
-    <sheet name="値引" sheetId="12" r:id="rId8"/>
+    <sheet name="お知らせ" sheetId="14" r:id="rId8"/>
     <sheet name="レビュー" sheetId="13" r:id="rId9"/>
-    <sheet name="お知らせ" sheetId="14" r:id="rId10"/>
-    <sheet name="消費税" sheetId="15" r:id="rId11"/>
+    <sheet name="削除依頼" sheetId="17" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="223">
   <si>
     <t>　　森永製品ネット販売システム</t>
     <rPh sb="2" eb="4">
@@ -283,10 +282,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ipt</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>森永製品ネット販売システム</t>
   </si>
   <si>
@@ -482,10 +477,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>カートデータが格納されている。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>数量</t>
     <rPh sb="0" eb="2">
       <t>スウリョウ</t>
@@ -776,10 +767,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>tno</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ino</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -860,27 +847,439 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Discount</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>値引番号</t>
+    <t>ジャンルテーブルへ参照しにいく</t>
+    <rPh sb="9" eb="11">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>注文テーブルへ参照しにいく</t>
     <rPh sb="0" eb="2">
-      <t>ネビ</t>
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品テーブルへ参照しにいく</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>消費税テーブルへ参照しにいく</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒゼイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レビュータイトル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レビュー文</t>
+    <rPh sb="4" eb="5">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rno</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rtitle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rword</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mno</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>会員テーブルへ参照しにいく</t>
+    <rPh sb="0" eb="2">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(FK)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レビューデータが格納されている。レビューは会員のみ投稿できる。</t>
+    <rPh sb="21" eb="23">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お知らせ</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お知らせ番号</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>nno</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ntitle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>nword</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>nurl</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文</t>
+    <rPh sb="0" eb="1">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Notice</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お知らせデータが格納されている。</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VARCHAR(15)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(PK) AOUT_INCREMENT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VARCHAR(40)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VARCHAR(8)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VARCHAR(13)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VARCHAR(16)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(PK) AOUT_INCREMENT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>INT(5)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジャンル番号</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>gno</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コメント</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ico</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VARCHAR(80)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>INT(6)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DOUBLE(4)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>INT(2)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(FK)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>INT(5)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>INT(10)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>INT(8)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>INT(6)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VARCHAR(40)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>年月日時分秒を格納</t>
+    <rPh sb="0" eb="3">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>フンビョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>INT(3)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>INT(9)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BIGINT(13)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>INT(7)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>INT(10)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>INT(5)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>INT(6)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>INT(2)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VARCHAR(25)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>INT(8)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>INT(5)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>INT(4)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TIMESTAMP(12)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rtime</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>星</t>
+    <rPh sb="0" eb="1">
+      <t>ホシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rstar</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>INT(1)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>投稿日時</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>値引名</t>
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除依頼</t>
     <rPh sb="0" eb="2">
-      <t>ネビ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イライ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2014/05/16</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除依頼があるレビューIDを格納する。</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カウント</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>INT(5)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Drevue</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rct</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レビューテーブルへ参照しにいく</t>
+    <rPh sb="9" eb="11">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カートデータが格納されている。非会員はセッションにカートを保持する。</t>
+    <rPh sb="15" eb="18">
+      <t>ヒカイイン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -894,537 +1293,15 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>値引データが格納されている。商品、ジャンル別に値引できるように構成。</t>
-    <rPh sb="0" eb="2">
-      <t>ネビキ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ネビ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>コウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>dno</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>dname</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>dparce</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>gno</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ino</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>gno</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ジャンル</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ino</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ジャンルテーブルへ参照しにいく</t>
-    <rPh sb="9" eb="11">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>注文テーブルへ参照しにいく</t>
-    <rPh sb="0" eb="2">
-      <t>チュウモン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品テーブルへ参照しにいく</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>消費税テーブルへ参照しにいく</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒゼイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>レビュータイトル</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>レビュー文</t>
-    <rPh sb="4" eb="5">
-      <t>ブン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>rno</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>rtitle</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>rword</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>mno</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>会員テーブルへ参照しにいく</t>
-    <rPh sb="0" eb="2">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>(FK)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>レビューデータが格納されている。レビューは会員のみ投稿できる。</t>
-    <rPh sb="21" eb="23">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>トウコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>お知らせ</t>
-    <rPh sb="1" eb="2">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>お知らせ番号</t>
-    <rPh sb="1" eb="2">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>タイトル</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>URL</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>nno</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ntitle</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>nword</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>nurl</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>文</t>
-    <rPh sb="0" eb="1">
-      <t>ブン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>消費税</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒゼイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Tax</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Notice</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>お知らせデータが格納されている。</t>
-    <rPh sb="1" eb="2">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>消費税データが格納されている。</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒゼイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>税率</t>
-    <rPh sb="0" eb="2">
-      <t>ゼイリツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>開始日時</t>
-    <rPh sb="0" eb="2">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>終了日時</t>
-    <rPh sb="0" eb="2">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>タイムスタンプ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>tno</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>tparce</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>tstart</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>tend</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ttime</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>tno</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>注文明細テーブルから参照される</t>
-    <rPh sb="0" eb="4">
-      <t>チュウモンメイサイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>VARCHAR(15)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>(PK) AOUT_INCREMENT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>VARCHAR(40)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>VARCHAR(8)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>VARCHAR(100)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>VARCHAR(13)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>VARCHAR(16)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>(PK) AOUT_INCREMENT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>INT(5)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ジャンル番号</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>gno</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>コメント</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ico</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>VARCHAR(80)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>INT(6)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DOUBLE(4)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>INT(2)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>(FK)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>INT(5)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>INT(10)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>INT(8)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DATETIME</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>INT(6)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>VARCHAR(40)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>年月日時分秒を格納</t>
-    <rPh sb="0" eb="3">
-      <t>ネンガッピ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>フンビョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>INT(3)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>INT(9)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>BIGINT(13)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>INT(7)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>INT(10)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>INT(5)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>INT(6)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>INT(3)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>INT(2)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>VARCHAR(25)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>INT(4)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>INT(2)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>INT(8)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>INT(5)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>INT(4)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>INT(2)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DATETIME</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TIMESTAMP(12)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TIMESTAMP(12)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>rtime</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>星</t>
-    <rPh sb="0" eb="1">
-      <t>ホシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>rstar</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>INT(1)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>投稿日時</t>
-    <rPh sb="0" eb="2">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TIMESTAMP</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>-</t>
+    <t>gdis</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>gpt</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DOUBLE(3)</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1534,7 +1411,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1555,6 +1432,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1590,6 +1476,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1599,13 +1488,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>685799</xdr:colOff>
+      <xdr:colOff>666751</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
@@ -1616,8 +1505,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="76199" y="95250"/>
-          <a:ext cx="6410325" cy="9810750"/>
+          <a:off x="76200" y="95250"/>
+          <a:ext cx="6391276" cy="9810750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1660,14 +1549,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>285748</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1676,8 +1565,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="285748" y="685800"/>
-          <a:ext cx="1590677" cy="1800225"/>
+          <a:off x="285748" y="581025"/>
+          <a:ext cx="1809752" cy="1971675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1921,14 +1810,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1937,8 +1826,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="285750" y="3429000"/>
-          <a:ext cx="1590675" cy="771525"/>
+          <a:off x="285750" y="3362326"/>
+          <a:ext cx="1628775" cy="981074"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2056,16 +1945,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>447674</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2074,8 +1963,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3743325" y="962024"/>
-          <a:ext cx="1581150" cy="2095501"/>
+          <a:off x="3743324" y="771526"/>
+          <a:ext cx="1819275" cy="2286000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2161,7 +2050,7 @@
               <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
               <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
             </a:rPr>
-            <a:t>＊会員番号</a:t>
+            <a:t>・会員番号</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
@@ -2590,7 +2479,7 @@
               <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
               <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
             </a:rPr>
-            <a:t>＊合計ポイント</a:t>
+            <a:t>・合計ポイント</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
             <a:ln>
@@ -2727,8 +2616,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2738,7 +2627,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4495800" y="3048000"/>
-          <a:ext cx="0" cy="2124075"/>
+          <a:ext cx="0" cy="1981200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2770,7 +2659,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
@@ -2787,8 +2676,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1885950" y="1866900"/>
-          <a:ext cx="1885950" cy="0"/>
+          <a:off x="2105025" y="1866900"/>
+          <a:ext cx="1666875" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2887,14 +2776,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>180976</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2903,8 +2792,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3743325" y="5143500"/>
-          <a:ext cx="1552576" cy="1504950"/>
+          <a:off x="3390900" y="4854575"/>
+          <a:ext cx="1400176" cy="1431925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3087,39 +2976,6 @@
             </a:rPr>
             <a:t>＊ポイント付与率</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-            <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-            </a:rPr>
-            <a:t>＊消費税</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-            </a:rPr>
-            <a:t>ID</a:t>
-          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
             <a:effectLst/>
           </a:endParaRPr>
@@ -3234,14 +3090,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>44449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3250,8 +3106,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="285750" y="7372350"/>
-          <a:ext cx="1590675" cy="609600"/>
+          <a:off x="260350" y="6978649"/>
+          <a:ext cx="1441450" cy="1117601"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3384,6 +3240,70 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>＊値引率</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+            <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>＊ポイント付与率</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+            <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
             <a:effectLst/>
           </a:endParaRPr>
@@ -3498,14 +3418,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>31751</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3514,8 +3434,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="285750" y="5143500"/>
-          <a:ext cx="1590675" cy="1419225"/>
+          <a:off x="260350" y="4902201"/>
+          <a:ext cx="1441450" cy="1403350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3762,7 +3682,7 @@
               <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
               <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
             </a:rPr>
-            <a:t>＊ポイント付与率</a:t>
+            <a:t>＊コメント</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
             <a:ln>
@@ -3779,38 +3699,6 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-            </a:rPr>
-            <a:t>＊コメント</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uLnTx/>
-            <a:uFillTx/>
-            <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-            <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
             <a:effectLst/>
           </a:endParaRPr>
@@ -3923,26 +3811,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3743325" y="7372349"/>
-          <a:ext cx="1590675" cy="1123951"/>
+          <a:off x="2019300" y="3248025"/>
+          <a:ext cx="1685925" cy="1609725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3978,372 +3866,6 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-            </a:rPr>
-            <a:t>値引き</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uLnTx/>
-            <a:uFillTx/>
-            <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-            <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-            </a:rPr>
-            <a:t>＊値引番号</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-            </a:rPr>
-            <a:t>(PK)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-            </a:rPr>
-            <a:t>＊商品番号</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-            </a:rPr>
-            <a:t>(FK)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-            </a:rPr>
-            <a:t>＊ジャンル番号</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-            </a:rPr>
-            <a:t>(FK)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-            </a:rPr>
-            <a:t>＊値引名</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uLnTx/>
-            <a:uFillTx/>
-            <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-            <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-            </a:rPr>
-            <a:t>＊値引率</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uLnTx/>
-            <a:uFillTx/>
-            <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-            <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・メールアドレス</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・住所</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・郵便番号</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・電話番号</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・累計ポイント</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・クレジットカード番号</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2019300" y="3429000"/>
-          <a:ext cx="1590675" cy="1133475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -4473,6 +3995,50 @@
             </a:rPr>
             <a:t>＊レビュー文</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+            <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>＊投稿日時</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+            <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>＊星</a:t>
+          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
             <a:effectLst/>
           </a:endParaRPr>
@@ -4585,16 +4151,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4603,8 +4169,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1971675" y="8610600"/>
-          <a:ext cx="1590675" cy="990600"/>
+          <a:off x="3778250" y="6934200"/>
+          <a:ext cx="1441450" cy="1038225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4917,13 +4483,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4932,8 +4498,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1066800" y="2486025"/>
-          <a:ext cx="0" cy="962025"/>
+          <a:off x="1066800" y="2552700"/>
+          <a:ext cx="0" cy="809625"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4965,15 +4531,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4982,58 +4548,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1066800" y="4191000"/>
-          <a:ext cx="0" cy="942975"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="直線矢印コネクタ 19"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1876425" y="7696200"/>
-          <a:ext cx="1857375" cy="0"/>
+          <a:off x="1076325" y="4333876"/>
+          <a:ext cx="0" cy="733424"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5067,13 +4583,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5082,8 +4598,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1085850" y="6553200"/>
-          <a:ext cx="0" cy="819150"/>
+          <a:off x="984250" y="6305550"/>
+          <a:ext cx="0" cy="673100"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5122,8 +4638,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5133,7 +4649,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2800350" y="2190750"/>
-          <a:ext cx="0" cy="1238250"/>
+          <a:ext cx="0" cy="1057275"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5165,13 +4681,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>238126</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
@@ -5182,8 +4698,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1895475" y="2190750"/>
-          <a:ext cx="904875" cy="0"/>
+          <a:off x="2114550" y="2190750"/>
+          <a:ext cx="685801" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5215,8 +4731,8 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
@@ -5231,8 +4747,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2790825" y="4543425"/>
-          <a:ext cx="0" cy="1009650"/>
+          <a:off x="2790825" y="4857750"/>
+          <a:ext cx="0" cy="695325"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5313,15 +4829,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>295274</xdr:colOff>
+      <xdr:colOff>571499</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>511583</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>102008</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5330,7 +4846,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2171699" y="1771650"/>
+          <a:off x="2447924" y="1743075"/>
           <a:ext cx="216309" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -5380,14 +4896,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>676274</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>206783</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5396,7 +4912,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="962024" y="4419600"/>
+          <a:off x="962024" y="4476750"/>
           <a:ext cx="216309" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -5446,14 +4962,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>340133</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5462,7 +4978,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2686049" y="2809875"/>
+          <a:off x="2686049" y="2552700"/>
           <a:ext cx="216309" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -5513,13 +5029,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>340133</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5528,7 +5044,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2686049" y="4981575"/>
+          <a:off x="2686049" y="5124450"/>
           <a:ext cx="216309" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -5711,13 +5227,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>676274</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>206783</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5726,7 +5242,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="962024" y="3028950"/>
+          <a:off x="962024" y="2971800"/>
           <a:ext cx="216309" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -5841,15 +5357,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>657224</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>187733</xdr:colOff>
+      <xdr:colOff>178208</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5858,7 +5374,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4400549" y="4562475"/>
+          <a:off x="4391024" y="4419600"/>
           <a:ext cx="216309" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -5908,14 +5424,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>666749</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>197258</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5924,7 +5440,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="952499" y="4829175"/>
+          <a:off x="952499" y="4762500"/>
           <a:ext cx="216309" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -6171,24 +5687,292 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>231775</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>644934</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="円/楕円 38"/>
+        <xdr:cNvPr id="54" name="正方形/長方形 53"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2305050" y="7600950"/>
+          <a:off x="1933575" y="6934200"/>
+          <a:ext cx="1457325" cy="660400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>削除依頼</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+            <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>＊レビュー番号</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+            <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>＊カウント</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・メールアドレス</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・住所</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・郵便番号</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・電話番号</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・累計ポイント</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・クレジットカード番号</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線矢印コネクタ 49"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2740025" y="4689475"/>
+          <a:ext cx="0" cy="2244725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>502058</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="円/楕円 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2847974" y="5467350"/>
           <a:ext cx="216309" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -6236,26 +6020,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>298449</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>216308</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514758</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="円/楕円 39"/>
+        <xdr:cNvPr id="62" name="円/楕円 61"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="971549" y="6648450"/>
-          <a:ext cx="216309" cy="209550"/>
+          <a:off x="2628899" y="6203950"/>
+          <a:ext cx="216309" cy="196850"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -6304,24 +6088,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>216308</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="円/楕円 40"/>
+        <xdr:cNvPr id="42" name="円/楕円 41"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="971549" y="7058025"/>
-          <a:ext cx="216309" cy="209550"/>
+          <a:off x="971549" y="6670675"/>
+          <a:ext cx="216309" cy="203200"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -6368,26 +6152,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>102008</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>225833</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="円/楕円 41"/>
+        <xdr:cNvPr id="43" name="円/楕円 42"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3133724" y="7591425"/>
-          <a:ext cx="216309" cy="209550"/>
+          <a:off x="981074" y="6965950"/>
+          <a:ext cx="216309" cy="203200"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -6434,858 +6218,82 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="直線矢印コネクタ 42"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4533900" y="6905625"/>
-          <a:ext cx="0" cy="466725"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="直線コネクタ 43"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1562100" y="6896100"/>
-          <a:ext cx="2971800" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="直線コネクタ 44"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1552575" y="6572250"/>
-          <a:ext cx="0" cy="323851"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>463959</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="円/楕円 45"/>
-        <xdr:cNvSpPr/>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2124075" y="6791325"/>
-          <a:ext cx="216309" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>409574</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>130583</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="円/楕円 46"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3657599" y="6800850"/>
-          <a:ext cx="216309" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="正方形/長方形 48"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4695825" y="3609975"/>
-          <a:ext cx="1581150" cy="1133475"/>
+          <a:off x="285750" y="8572500"/>
+          <a:ext cx="1800225" cy="885825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-            </a:rPr>
-            <a:t>消費税</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-            <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-            </a:rPr>
-            <a:t>＊消費税番号</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-            </a:rPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>＊・・・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Not Null</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>(PK)</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-            </a:rPr>
-            <a:t>＊税率</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uLnTx/>
-            <a:uFillTx/>
-            <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-            <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-            </a:rPr>
-            <a:t>・開始日</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uLnTx/>
-            <a:uFillTx/>
-            <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-            <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-            </a:rPr>
-            <a:t>・終了日</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uLnTx/>
-            <a:uFillTx/>
-            <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-            <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-            </a:rPr>
-            <a:t>＊タイムスタンプ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uLnTx/>
-            <a:uFillTx/>
-            <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-            <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・メールアドレス</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・住所</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・郵便番号</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・電話番号</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・累計ポイント</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・クレジットカード番号</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="直線矢印コネクタ 51"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5800725" y="4733925"/>
-          <a:ext cx="0" cy="942975"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="直線コネクタ 54"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5324475" y="5657850"/>
-          <a:ext cx="476250" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>540159</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="円/楕円 57"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5438775" y="5562600"/>
-          <a:ext cx="216309" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>111534</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="円/楕円 58"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5695950" y="5067300"/>
-          <a:ext cx="216309" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・・・主キー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(FK)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・・・外部キー</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7586,8 +6594,8 @@
   </sheetPr>
   <dimension ref="A2:A3"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7612,17 +6620,17 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.98425196850393704" right="0.39370078740157483" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G15"/>
+  <dimension ref="A2:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7638,85 +6646,85 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="C2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="C3" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="C4" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="C5" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="C6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="C7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="C8" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -7724,115 +6732,126 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
+      <c r="A12" s="8">
         <v>1</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>232</v>
+      <c r="B12" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
-        <v>197</v>
+        <v>160</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
+      <c r="A13" s="8">
         <v>2</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>203</v>
+      <c r="B13" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
-        <v>3</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+        <v>160</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="8">
+        <v>1</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="8" t="s">
+        <v>216</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C8:G8"/>
+  <mergeCells count="11">
+    <mergeCell ref="C7:G7"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C8:G8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7840,12 +6859,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G20"/>
+  <dimension ref="A2:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7861,85 +6880,85 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="C2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="C3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="C4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="C5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="C6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="C7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="C8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -7974,20 +6993,20 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>181</v>
+        <v>73</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>234</v>
+        <v>188</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -7995,16 +7014,16 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>177</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>205</v>
+        <v>158</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -8014,16 +7033,16 @@
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>178</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>212</v>
+        <v>161</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -8033,15 +7052,17 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>179</v>
+        <v>22</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E15" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
@@ -8050,305 +7071,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>180</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>236</v>
+        <v>163</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="7" max="7" width="29" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
-        <v>2</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
-        <v>3</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="1">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -8361,13 +7093,13 @@
         <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -8380,13 +7112,13 @@
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -8399,13 +7131,13 @@
         <v>25</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -8417,15 +7149,17 @@
         <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E20" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
@@ -8439,16 +7173,16 @@
         <v>27</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="12"/>
       <c r="G23" s="3" t="s">
         <v>18</v>
       </c>
@@ -8458,18 +7192,18 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="8"/>
+        <v>73</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="11"/>
       <c r="G24" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -8477,18 +7211,18 @@
         <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" s="8"/>
+        <v>73</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="11"/>
       <c r="G25" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
@@ -8496,18 +7230,18 @@
         <v>3</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" s="8"/>
+        <v>73</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="11"/>
       <c r="G26" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -8536,10 +7270,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G29"/>
+  <dimension ref="A2:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8555,85 +7289,85 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="C2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="C3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="C4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="C5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="C6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="C7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="C8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -8671,17 +7405,17 @@
         <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -8692,19 +7426,19 @@
         <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
+      <c r="A14" s="10">
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -8714,247 +7448,232 @@
         <v>33</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F14" s="1"/>
+        <v>160</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
+      <c r="A15" s="10">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F15" s="1"/>
+        <v>160</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="1">
+      <c r="A16" s="10">
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="1">
+      <c r="A17" s="10">
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
-        <v>7</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>26</v>
+      <c r="A20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="3" t="s">
-        <v>18</v>
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="11"/>
       <c r="G22" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="8"/>
+      <c r="C23" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="11"/>
       <c r="G23" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="8"/>
+      <c r="C24" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="11"/>
       <c r="G24" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="1">
-        <v>4</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="1">
-        <v>1</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="1" t="s">
-        <v>150</v>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
@@ -8962,10 +7681,10 @@
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8978,7 +7697,7 @@
   <dimension ref="A2:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C8" sqref="C8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8994,85 +7713,85 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="C2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="C3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="C4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="C5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="C6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="C7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="C8" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -9110,17 +7829,17 @@
         <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -9131,17 +7850,17 @@
         <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -9149,23 +7868,23 @@
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -9173,16 +7892,16 @@
         <v>27</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="C17" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="12"/>
       <c r="G17" s="3" t="s">
         <v>18</v>
       </c>
@@ -9192,18 +7911,18 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="8"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="11"/>
       <c r="G18" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -9211,18 +7930,18 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="11"/>
       <c r="G19" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -9251,8 +7970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9268,85 +7987,85 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="C2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="C3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="C4" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="C5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="C6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="C7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="C8" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -9382,20 +8101,20 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -9406,12 +8125,14 @@
         <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E13" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
@@ -9423,17 +8144,17 @@
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
@@ -9441,16 +8162,16 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -9460,15 +8181,17 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E16" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
@@ -9480,13 +8203,13 @@
         <v>22</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -9499,13 +8222,13 @@
         <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -9518,13 +8241,13 @@
         <v>23</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -9537,13 +8260,13 @@
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -9553,16 +8276,16 @@
         <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -9572,16 +8295,16 @@
         <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -9596,16 +8319,16 @@
         <v>27</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="12"/>
       <c r="G25" s="3" t="s">
         <v>18</v>
       </c>
@@ -9615,18 +8338,18 @@
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F26" s="8"/>
+        <v>108</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="11"/>
       <c r="G26" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -9651,10 +8374,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G24"/>
+  <dimension ref="A2:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9670,85 +8393,85 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="C2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="C3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="C4" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="C5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="C6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="C7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="C8" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -9783,20 +8506,20 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -9804,16 +8527,16 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -9826,13 +8549,13 @@
         <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -9845,13 +8568,13 @@
         <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -9861,16 +8584,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -9883,127 +8606,108 @@
         <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
-        <v>7</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>42</v>
+      <c r="A20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="3" t="s">
-        <v>18</v>
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="F22" s="8"/>
+        <v>117</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="11"/>
       <c r="G22" s="1" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="8"/>
+      <c r="C23" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="11"/>
       <c r="G23" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="1">
-        <v>3</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="1" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
@@ -10020,10 +8724,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G18"/>
+  <dimension ref="A2:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10039,85 +8743,85 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="C2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="C3" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="C4" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="C5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="C6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="C7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="C8" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -10155,17 +8859,17 @@
         <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -10173,90 +8877,132 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="10">
+        <v>3</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10"/>
+    </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+      <c r="A15" s="10">
+        <v>4</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="3" t="s">
+      <c r="B18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="1">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
-        <v>2</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="1" t="s">
-        <v>90</v>
+      <c r="F20" s="15"/>
+      <c r="G20" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C16:D16"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
@@ -10273,10 +9019,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G21"/>
+  <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10292,85 +9038,85 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="C2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="C3" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="C4" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="C5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="C6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="C7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="C8" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -10405,20 +9151,20 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -10426,16 +9172,16 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -10445,128 +9191,41 @@
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="12.95" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="1">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="1">
-        <v>2</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
+  <mergeCells count="7">
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
@@ -10586,7 +9245,7 @@
   <dimension ref="A2:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10602,85 +9261,85 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="C2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="C3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="C4" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="C5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="C6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="C7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="C8" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -10715,20 +9374,20 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -10736,16 +9395,16 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -10755,16 +9414,16 @@
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -10774,16 +9433,16 @@
         <v>4</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -10793,16 +9452,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="F16" s="7">
         <v>3</v>
@@ -10817,17 +9476,17 @@
         <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -10838,22 +9497,22 @@
         <v>28</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -10861,16 +9520,16 @@
         <v>27</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="C21" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="12"/>
       <c r="G21" s="3" t="s">
         <v>18</v>
       </c>
@@ -10880,18 +9539,18 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C22" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="F22" s="8"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="11"/>
       <c r="G22" s="1" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -10899,18 +9558,18 @@
         <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="11"/>
       <c r="G23" s="1" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/DB設計書.xlsx
+++ b/DB設計書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="20475" windowHeight="9840" activeTab="6"/>
+    <workbookView xWindow="600" yWindow="105" windowWidth="20475" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="E-R図 " sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="225">
   <si>
     <t>　　森永製品ネット販売システム</t>
     <rPh sb="2" eb="4">
@@ -1302,6 +1302,14 @@
   </si>
   <si>
     <t>DOUBLE(3)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Yes</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1448,11 +1456,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1792,7 +1800,7 @@
               <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
               <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
             </a:rPr>
-            <a:t>・クレジットカード番号</a:t>
+            <a:t>＊クレジットカード番号</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
             <a:solidFill>
@@ -2335,7 +2343,7 @@
               <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
               <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
             </a:rPr>
-            <a:t>・クレジットカード番号</a:t>
+            <a:t>＊クレジットカード番号</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
             <a:ln>
@@ -2974,7 +2982,7 @@
               <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
               <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
             </a:rPr>
-            <a:t>＊ポイント付与率</a:t>
+            <a:t>・ポイント付与率</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
             <a:effectLst/>
@@ -6594,7 +6602,7 @@
   </sheetPr>
   <dimension ref="A2:A3"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
@@ -6682,13 +6690,13 @@
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
@@ -6808,14 +6816,14 @@
       <c r="B16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12" t="s">
+      <c r="D16" s="13"/>
+      <c r="E16" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="12"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="9" t="s">
         <v>18</v>
       </c>
@@ -6841,17 +6849,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C8:G8"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C8:G8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6864,7 +6872,7 @@
   <dimension ref="A2:G26"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6916,13 +6924,13 @@
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
@@ -7158,7 +7166,7 @@
         <v>166</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -7175,14 +7183,14 @@
       <c r="B23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12" t="s">
+      <c r="D23" s="13"/>
+      <c r="E23" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="12"/>
+      <c r="F23" s="13"/>
       <c r="G23" s="3" t="s">
         <v>18</v>
       </c>
@@ -7246,21 +7254,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7325,13 +7333,13 @@
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
@@ -7531,14 +7539,14 @@
       <c r="B20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12" t="s">
+      <c r="D20" s="13"/>
+      <c r="E20" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="12"/>
+      <c r="F20" s="13"/>
       <c r="G20" s="3" t="s">
         <v>18</v>
       </c>
@@ -7631,14 +7639,14 @@
       <c r="B27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12" t="s">
+      <c r="D27" s="13"/>
+      <c r="E27" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="12"/>
+      <c r="F27" s="13"/>
       <c r="G27" s="3" t="s">
         <v>18</v>
       </c>
@@ -7664,14 +7672,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="C2:G2"/>
@@ -7685,6 +7685,14 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7749,13 +7757,13 @@
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
@@ -7894,14 +7902,14 @@
       <c r="B17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12" t="s">
+      <c r="D17" s="13"/>
+      <c r="E17" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="12"/>
+      <c r="F17" s="13"/>
       <c r="G17" s="3" t="s">
         <v>18</v>
       </c>
@@ -7946,12 +7954,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
@@ -7959,6 +7961,12 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8023,13 +8031,13 @@
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
@@ -8321,14 +8329,14 @@
       <c r="B25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12" t="s">
+      <c r="D25" s="13"/>
+      <c r="E25" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="12"/>
+      <c r="F25" s="13"/>
       <c r="G25" s="3" t="s">
         <v>18</v>
       </c>
@@ -8354,17 +8362,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8377,7 +8385,7 @@
   <dimension ref="A2:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8429,13 +8437,13 @@
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
@@ -8612,7 +8620,7 @@
         <v>175</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>160</v>
+        <v>223</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -8629,14 +8637,14 @@
       <c r="B20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12" t="s">
+      <c r="D20" s="13"/>
+      <c r="E20" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="12"/>
+      <c r="F20" s="13"/>
       <c r="G20" s="3" t="s">
         <v>18</v>
       </c>
@@ -8700,12 +8708,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="C8:G8"/>
@@ -8715,6 +8717,12 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8726,7 +8734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -8779,13 +8787,13 @@
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
@@ -8997,12 +9005,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
@@ -9010,6 +9012,12 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9074,13 +9082,13 @@
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
@@ -9297,13 +9305,13 @@
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
@@ -9522,14 +9530,14 @@
       <c r="B21" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12" t="s">
+      <c r="D21" s="13"/>
+      <c r="E21" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="12"/>
+      <c r="F21" s="13"/>
       <c r="G21" s="3" t="s">
         <v>18</v>
       </c>
@@ -9574,12 +9582,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
@@ -9587,6 +9589,12 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DB設計書.xlsx
+++ b/DB設計書.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\森永製品ネット販売システム\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="20475" windowHeight="9840"/>
+    <workbookView xWindow="600" yWindow="105" windowWidth="20475" windowHeight="9840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="E-R図 " sheetId="4" r:id="rId1"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="223">
   <si>
     <t>　　森永製品ネット販売システム</t>
     <rPh sb="2" eb="4">
@@ -257,16 +262,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ポイント付与率</t>
-    <rPh sb="4" eb="6">
-      <t>フヨ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>リツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ジャンル番号</t>
     <rPh sb="4" eb="6">
       <t>バンゴウ</t>
@@ -504,10 +499,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>(PK)(FK)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>mno</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1062,10 +1053,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>DOUBLE(4)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>TEXT</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1283,33 +1270,37 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>値引率</t>
-    <rPh sb="0" eb="2">
-      <t>ネビキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>リツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>gdis</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>gpt</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DOUBLE(3)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Yes</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カート番号</t>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cno</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(PK)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(FK)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ＩＮＴ(6)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ポイント数</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1419,7 +1410,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1456,11 +1447,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1898,7 +1892,7 @@
               <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
               <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
             </a:rPr>
-            <a:t>＊会員番号</a:t>
+            <a:t>＊カート番号</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
@@ -1908,7 +1902,7 @@
               <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
               <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
             </a:rPr>
-            <a:t>(PK)(FK)</a:t>
+            <a:t>(PK)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1921,7 +1915,7 @@
               <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
               <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
             </a:rPr>
-            <a:t>＊商品番号</a:t>
+            <a:t>＊会員番号</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
@@ -1931,7 +1925,30 @@
               <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
               <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
             </a:rPr>
-            <a:t>(PK)(FK)</a:t>
+            <a:t>(FK)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>＊商品番号</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>(FK)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2982,7 +2999,7 @@
               <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
               <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
             </a:rPr>
-            <a:t>・ポイント付与率</a:t>
+            <a:t>・ポイント数</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
             <a:effectLst/>
@@ -3104,8 +3121,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3114,8 +3131,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="260350" y="6978649"/>
-          <a:ext cx="1441450" cy="1117601"/>
+          <a:off x="285750" y="7245349"/>
+          <a:ext cx="1590675" cy="812801"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3233,85 +3250,6 @@
             </a:rPr>
             <a:t>＊ジャンル名</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uLnTx/>
-            <a:uFillTx/>
-            <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-            <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-            </a:rPr>
-            <a:t>＊値引率</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uLnTx/>
-            <a:uFillTx/>
-            <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-            <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-            </a:rPr>
-            <a:t>＊ポイント付与率</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uLnTx/>
-            <a:uFillTx/>
-            <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-            <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
             <a:effectLst/>
           </a:endParaRPr>
@@ -6311,7 +6249,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6353,7 +6291,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6388,7 +6326,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6602,7 +6540,7 @@
   </sheetPr>
   <dimension ref="A2:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
@@ -6654,85 +6592,85 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="C2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="C3" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="C4" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="C5" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="C6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="C7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="C8" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -6767,20 +6705,20 @@
         <v>1</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -6788,16 +6726,16 @@
         <v>2</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>215</v>
-      </c>
       <c r="D13" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F13" s="8">
         <v>0</v>
@@ -6806,7 +6744,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -6817,11 +6755,11 @@
         <v>14</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="9" t="s">
@@ -6833,33 +6771,33 @@
         <v>1</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="F17" s="11"/>
+        <v>138</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="12"/>
       <c r="G17" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C8:G8"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C8:G8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6888,85 +6826,85 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="C2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="C3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="C4" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="C5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="C6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="C7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="C8" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -7004,17 +6942,17 @@
         <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -7025,13 +6963,13 @@
         <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -7044,13 +6982,13 @@
         <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -7063,13 +7001,13 @@
         <v>22</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -7082,13 +7020,13 @@
         <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -7101,13 +7039,13 @@
         <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -7120,13 +7058,13 @@
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -7139,13 +7077,13 @@
         <v>25</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -7157,16 +7095,16 @@
         <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -7181,14 +7119,14 @@
         <v>27</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="3" t="s">
@@ -7200,18 +7138,18 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="11"/>
+        <v>71</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="12"/>
       <c r="G24" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -7219,18 +7157,18 @@
         <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" s="11"/>
+        <v>71</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="12"/>
       <c r="G25" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
@@ -7238,37 +7176,37 @@
         <v>3</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" s="11"/>
+        <v>71</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="12"/>
       <c r="G26" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7297,85 +7235,85 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="C2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="C3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="C4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="C5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="C6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="C7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="C8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -7413,17 +7351,17 @@
         <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -7434,13 +7372,13 @@
         <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -7453,13 +7391,13 @@
         <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -7471,16 +7409,16 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -7492,20 +7430,20 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -7513,16 +7451,16 @@
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -7540,11 +7478,11 @@
         <v>14</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="3" t="s">
@@ -7556,18 +7494,18 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="11"/>
+        <v>47</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="12"/>
       <c r="G21" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -7575,18 +7513,18 @@
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="11"/>
+        <v>47</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="12"/>
       <c r="G22" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -7594,18 +7532,18 @@
         <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="11"/>
+      <c r="F23" s="12"/>
       <c r="G23" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -7613,23 +7551,23 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="11"/>
+        <v>49</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="12"/>
       <c r="G24" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
@@ -7640,11 +7578,11 @@
         <v>14</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="3" t="s">
@@ -7656,22 +7594,30 @@
         <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F28" s="11"/>
+        <v>83</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="12"/>
       <c r="G28" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="C2:G2"/>
@@ -7685,14 +7631,6 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7702,10 +7640,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G19"/>
+  <dimension ref="A2:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:G8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7721,85 +7659,85 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="C2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="C3" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="C4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="C5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="C6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="C7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="C8" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -7830,130 +7768,157 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
+      <c r="A12" s="11">
         <v>1</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>188</v>
+      <c r="B12" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>185</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
-        <v>69</v>
+        <v>158</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>70</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
         <v>3</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>41</v>
-      </c>
+      <c r="B15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13" t="s">
+      <c r="B18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="3" t="s">
+      <c r="C18" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="3" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="12"/>
       <c r="G19" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
@@ -7961,12 +7926,6 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7978,7 +7937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -7995,85 +7954,85 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="C2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="C3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="C4" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="C5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="C6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="C7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="C8" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -8109,20 +8068,20 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -8133,13 +8092,13 @@
         <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -8152,17 +8111,17 @@
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
@@ -8170,16 +8129,16 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -8189,16 +8148,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -8211,13 +8170,13 @@
         <v>22</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -8230,13 +8189,13 @@
         <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -8249,13 +8208,13 @@
         <v>23</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -8268,13 +8227,13 @@
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -8284,16 +8243,16 @@
         <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -8303,16 +8262,16 @@
         <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -8327,14 +8286,14 @@
         <v>27</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="3" t="s">
@@ -8346,33 +8305,33 @@
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="F26" s="11"/>
+        <v>106</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="12"/>
       <c r="G26" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8385,7 +8344,7 @@
   <dimension ref="A2:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8401,85 +8360,85 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="C2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="C3" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="C4" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="C5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="C6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="C7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="C8" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -8514,20 +8473,20 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -8535,16 +8494,16 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -8557,13 +8516,13 @@
         <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -8576,13 +8535,13 @@
         <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -8592,16 +8551,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -8611,23 +8570,23 @@
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>222</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -8635,14 +8594,14 @@
         <v>27</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="3" t="s">
@@ -8654,18 +8613,18 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F21" s="11"/>
+        <v>96</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="12"/>
       <c r="G21" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -8673,18 +8632,18 @@
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="11"/>
+        <v>115</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="12"/>
       <c r="G22" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -8692,22 +8651,28 @@
         <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="F23" s="11"/>
+        <v>118</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="12"/>
       <c r="G23" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="C8:G8"/>
@@ -8717,12 +8682,6 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8732,10 +8691,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G20"/>
+  <dimension ref="A2:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8751,85 +8710,85 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="C2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="C3" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="C4" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="C5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="C6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="C7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="C8" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -8864,20 +8823,20 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -8885,126 +8844,90 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="10">
-        <v>3</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F14" s="10">
-        <v>0</v>
-      </c>
-      <c r="G14" s="10"/>
-    </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="10">
-        <v>4</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F15" s="10">
-        <v>0</v>
-      </c>
-      <c r="G15" s="10"/>
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>26</v>
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="1">
-        <v>1</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="14" t="s">
+      <c r="C18" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
-        <v>2</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="1" t="s">
-        <v>88</v>
+      <c r="F18" s="16"/>
+      <c r="G18" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
@@ -9012,12 +8935,6 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9046,85 +8963,85 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="C2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="C3" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="C4" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="C5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="C6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="C7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="C8" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -9159,20 +9076,20 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -9180,16 +9097,16 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -9199,16 +9116,16 @@
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -9218,16 +9135,16 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -9269,85 +9186,85 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="C2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="C3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="C4" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="C5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="C6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="C7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="C8" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -9382,20 +9299,20 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -9403,16 +9320,16 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -9422,16 +9339,16 @@
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -9441,16 +9358,16 @@
         <v>4</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -9460,16 +9377,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="F16" s="7">
         <v>3</v>
@@ -9484,17 +9401,17 @@
         <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -9505,22 +9422,22 @@
         <v>28</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -9528,14 +9445,14 @@
         <v>27</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="3" t="s">
@@ -9547,18 +9464,18 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="12"/>
       <c r="G22" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -9566,22 +9483,28 @@
         <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="11"/>
+        <v>45</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="12"/>
       <c r="G23" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
@@ -9589,12 +9512,6 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DB設計書.xlsx
+++ b/DB設計書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="20475" windowHeight="9840" activeTab="4"/>
+    <workbookView xWindow="600" yWindow="105" windowWidth="20475" windowHeight="9840" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="E-R図 " sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="215">
   <si>
     <t>　　森永製品ネット販売システム</t>
     <rPh sb="2" eb="4">
@@ -457,13 +457,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>値引</t>
-    <rPh sb="0" eb="2">
-      <t>ネビ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>カート</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -487,10 +480,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>kno</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ino</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -588,16 +577,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>値引テーブルから参照される</t>
-    <rPh sb="0" eb="2">
-      <t>ネビ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>会員テーブルから参照される</t>
     <rPh sb="0" eb="2">
       <t>カイイン</t>
@@ -732,16 +711,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>消費税番号</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒゼイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>lno</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -776,14 +745,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>tno</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>tno</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ジャンル</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -819,14 +780,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>gno</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>gno</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Revue</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -865,16 +818,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>消費税テーブルへ参照しにいく</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒゼイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>レビュータイトル</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1149,19 +1092,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>INT(5)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>INT(4)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>TEXT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TIMESTAMP(12)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1301,6 +1236,21 @@
     <rPh sb="4" eb="5">
       <t>スウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・SQL文</t>
+    <rPh sb="4" eb="5">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mno</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1410,7 +1360,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1440,6 +1390,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1714,7 +1667,7 @@
               <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
               <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
             </a:rPr>
-            <a:t>＊住所</a:t>
+            <a:t>＊郵便番号</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
             <a:solidFill>
@@ -1734,7 +1687,7 @@
               <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
               <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
             </a:rPr>
-            <a:t>＊郵便番号</a:t>
+            <a:t>＊住所</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
             <a:solidFill>
@@ -1813,7 +1766,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
@@ -1828,8 +1781,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="285750" y="3362326"/>
-          <a:ext cx="1628775" cy="981074"/>
+          <a:off x="266700" y="3276600"/>
+          <a:ext cx="1495425" cy="1066800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2216,7 +2169,7 @@
               <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
               <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
             </a:rPr>
-            <a:t>＊住所</a:t>
+            <a:t>＊郵便番号</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
             <a:ln>
@@ -2264,7 +2217,7 @@
               <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
               <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
             </a:rPr>
-            <a:t>＊郵便番号</a:t>
+            <a:t>＊住所</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
             <a:ln>
@@ -2955,7 +2908,7 @@
               <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
               <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
             </a:rPr>
-            <a:t>＊数量</a:t>
+            <a:t>＊単価</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
             <a:solidFill>
@@ -2977,7 +2930,7 @@
               <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
               <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
             </a:rPr>
-            <a:t>＊単価</a:t>
+            <a:t>＊数量</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
             <a:solidFill>
@@ -4435,7 +4388,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4444,8 +4397,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1066800" y="2552700"/>
-          <a:ext cx="0" cy="809625"/>
+          <a:off x="990600" y="2552700"/>
+          <a:ext cx="0" cy="714375"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6540,8 +6493,8 @@
   </sheetPr>
   <dimension ref="A2:A3"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView view="pageLayout" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6567,16 +6520,19 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.98425196850393704" right="0.39370078740157483" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C2</oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G17"/>
+  <dimension ref="A2:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6592,85 +6548,85 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="C3" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="C4" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="C5" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="C8" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -6705,20 +6661,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F12" s="8"/>
+        <v>149</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="G12" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -6726,16 +6684,16 @@
         <v>2</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="F13" s="8">
         <v>0</v>
@@ -6754,14 +6712,14 @@
       <c r="B16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13" t="s">
+      <c r="D16" s="14"/>
+      <c r="E16" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="13"/>
+      <c r="F16" s="14"/>
       <c r="G16" s="9" t="s">
         <v>18</v>
       </c>
@@ -6771,17 +6729,22 @@
         <v>1</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="F17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="13"/>
       <c r="G17" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>213</v>
       </c>
     </row>
@@ -6802,15 +6765,18 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C11</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G26"/>
+  <dimension ref="A2:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6826,85 +6792,85 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="C4" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -6942,17 +6908,19 @@
         <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F12" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="G12" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -6963,54 +6931,66 @@
         <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
@@ -7020,16 +7000,20 @@
         <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
@@ -7039,16 +7023,20 @@
         <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
@@ -7058,16 +7046,20 @@
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
@@ -7077,37 +7069,43 @@
         <v>25</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="2" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+        <v>205</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
@@ -7121,14 +7119,14 @@
       <c r="B23" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13" t="s">
+      <c r="D23" s="14"/>
+      <c r="E23" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="13"/>
+      <c r="F23" s="14"/>
       <c r="G23" s="3" t="s">
         <v>18</v>
       </c>
@@ -7138,18 +7136,18 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="12"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="13"/>
       <c r="G24" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -7157,18 +7155,18 @@
         <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" s="12"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="13"/>
       <c r="G25" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
@@ -7176,18 +7174,23 @@
         <v>3</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="13"/>
       <c r="G26" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -7211,15 +7214,18 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C3</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G28"/>
+  <dimension ref="A2:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7235,85 +7241,85 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -7354,14 +7360,16 @@
         <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F12" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="G12" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -7375,75 +7383,85 @@
         <v>46</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="12">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="10">
-        <v>3</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="12">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="10">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="2" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="10">
+      <c r="A16" s="12">
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>167</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
-        <v>175</v>
+        <v>149</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -7451,19 +7469,23 @@
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
@@ -7477,14 +7499,14 @@
       <c r="B20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13" t="s">
+      <c r="D20" s="14"/>
+      <c r="E20" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="13"/>
+      <c r="F20" s="14"/>
       <c r="G20" s="3" t="s">
         <v>18</v>
       </c>
@@ -7496,16 +7518,16 @@
       <c r="B21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12" t="s">
+      <c r="D21" s="13"/>
+      <c r="E21" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="12"/>
+      <c r="F21" s="13"/>
       <c r="G21" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -7515,16 +7537,16 @@
       <c r="B22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12" t="s">
+      <c r="D22" s="13"/>
+      <c r="E22" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="12"/>
+      <c r="F22" s="13"/>
       <c r="G22" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -7534,90 +7556,74 @@
       <c r="B23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12" t="s">
+      <c r="D23" s="13"/>
+      <c r="E23" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="12"/>
+      <c r="F23" s="13"/>
       <c r="G23" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="1">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>52</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="F27" s="13"/>
-      <c r="G27" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="1">
-        <v>1</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="1" t="s">
-        <v>132</v>
+      <c r="G27" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
+  <mergeCells count="19">
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="C2:G2"/>
@@ -7635,15 +7641,18 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C4</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G20"/>
+  <dimension ref="A2:G22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7659,85 +7668,85 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="C3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="C4" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="C8" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -7772,82 +7781,92 @@
         <v>1</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F12" s="11"/>
+        <v>149</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="G12" s="11" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F13" s="1"/>
+        <v>182</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="G13" s="1" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F14" s="1"/>
+        <v>182</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="G14" s="1" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="F15" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
@@ -7861,14 +7880,14 @@
       <c r="B18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13" t="s">
+      <c r="D18" s="14"/>
+      <c r="E18" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="13"/>
+      <c r="F18" s="14"/>
       <c r="G18" s="3" t="s">
         <v>18</v>
       </c>
@@ -7878,18 +7897,18 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="12"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="13"/>
       <c r="G19" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -7897,18 +7916,23 @@
         <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="12"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="13"/>
       <c r="G20" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -7930,15 +7954,18 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C5</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J26"/>
+  <dimension ref="A2:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7954,85 +7981,85 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="C4" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="C8" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -8068,20 +8095,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F12" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="G12" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -8092,189 +8121,227 @@
         <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+        <v>204</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
+      <c r="A14" s="12">
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>181</v>
+        <v>149</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
+      <c r="A15" s="12">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="12">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="12">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="12">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="12">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="1">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="1">
-        <v>6</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
-        <v>7</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="1">
-        <v>8</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
+      <c r="A20" s="12">
         <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="1">
+      <c r="A21" s="12">
         <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>180</v>
+        <v>95</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="1">
+      <c r="A22" s="12">
         <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+        <v>204</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
@@ -8288,14 +8355,14 @@
       <c r="B25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13" t="s">
+      <c r="D25" s="14"/>
+      <c r="E25" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="13"/>
+      <c r="F25" s="14"/>
       <c r="G25" s="3" t="s">
         <v>18</v>
       </c>
@@ -8305,18 +8372,23 @@
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="F26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" s="13"/>
       <c r="G26" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -8336,15 +8408,18 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C6</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G23"/>
+  <dimension ref="A2:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView view="pageLayout" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8360,85 +8435,85 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="C4" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="C8" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -8473,20 +8548,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F12" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="G12" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -8494,19 +8571,23 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
@@ -8516,16 +8597,20 @@
         <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
@@ -8535,54 +8620,66 @@
         <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+        <v>204</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
@@ -8596,14 +8693,14 @@
       <c r="B20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13" t="s">
+      <c r="D20" s="14"/>
+      <c r="E20" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="13"/>
+      <c r="F20" s="14"/>
       <c r="G20" s="3" t="s">
         <v>18</v>
       </c>
@@ -8613,18 +8710,18 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="13"/>
       <c r="G21" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -8632,47 +8729,31 @@
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12" t="s">
+      <c r="D22" s="13"/>
+      <c r="E22" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="12"/>
+      <c r="F22" s="13"/>
       <c r="G22" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="1">
-        <v>3</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="13">
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="C8:G8"/>
@@ -8686,15 +8767,18 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C7</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G18"/>
+  <dimension ref="A2:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView view="pageLayout" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8710,85 +8794,85 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="C3" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="C4" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="C8" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -8826,17 +8910,19 @@
         <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F12" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="G12" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -8844,19 +8930,23 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
@@ -8870,14 +8960,14 @@
       <c r="B16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="17" t="s">
+      <c r="D16" s="19"/>
+      <c r="E16" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="18"/>
+      <c r="F16" s="19"/>
       <c r="G16" s="3" t="s">
         <v>18</v>
       </c>
@@ -8887,43 +8977,27 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17" s="16"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="17"/>
       <c r="G17" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
-        <v>2</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C18:D18"/>
+  <mergeCells count="11">
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E16:F16"/>
@@ -8939,15 +9013,18 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C8</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G15"/>
+  <dimension ref="A2:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView view="pageLayout" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8963,85 +9040,85 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="C3" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="C4" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="C8" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -9076,20 +9153,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="G12" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -9097,57 +9176,74 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="12.95" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>213</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -9162,15 +9258,18 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C9</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G23"/>
+  <dimension ref="A2:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+    <sheetView view="pageLayout" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9186,85 +9285,85 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="C4" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="C8" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -9299,140 +9398,160 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="12">
+        <v>2</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="12">
+        <v>3</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
-        <v>2</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
-        <v>3</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="7">
-        <v>4</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="7">
-        <v>5</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>201</v>
+      <c r="D16" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F16" s="7">
-        <v>3</v>
-      </c>
-      <c r="G16" s="7"/>
+        <v>149</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>6</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>185</v>
+      <c r="B17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>193</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
-        <v>143</v>
+        <v>194</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
         <v>7</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>194</v>
+      <c r="B18" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>190</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1" t="s">
-        <v>143</v>
+        <v>191</v>
+      </c>
+      <c r="F18" s="7">
+        <v>3</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -9447,14 +9566,14 @@
       <c r="B21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13" t="s">
+      <c r="D21" s="14"/>
+      <c r="E21" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="13"/>
+      <c r="F21" s="14"/>
       <c r="G21" s="3" t="s">
         <v>18</v>
       </c>
@@ -9464,18 +9583,18 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="F22" s="12"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="13"/>
       <c r="G22" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -9485,16 +9604,21 @@
       <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12" t="s">
+      <c r="D23" s="13"/>
+      <c r="E23" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="12"/>
+      <c r="F23" s="13"/>
       <c r="G23" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -9516,5 +9640,8 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C10</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/DB設計書.xlsx
+++ b/DB設計書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="20475" windowHeight="9840" activeTab="9"/>
+    <workbookView xWindow="600" yWindow="105" windowWidth="20475" windowHeight="9840" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="E-R図 " sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="222">
   <si>
     <t>　　森永製品ネット販売システム</t>
     <rPh sb="2" eb="4">
@@ -780,10 +780,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Revue</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>レビュー番号</t>
     <rPh sb="4" eb="6">
       <t>バンゴウ</t>
@@ -1052,15 +1048,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>BIGINT(13)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>INT(7)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>INT(10)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1224,10 +1212,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>(FK)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ＩＮＴ(6)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1251,6 +1235,56 @@
   </si>
   <si>
     <t>mno</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ono</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(PK) (FK)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(PK)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(FK)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(PK) (FK)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品画像</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>iimg</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Review</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1360,7 +1394,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1403,11 +1437,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1420,6 +1457,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6531,7 +6571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
@@ -6548,44 +6588,44 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="C3" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -6596,37 +6636,37 @@
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -6661,19 +6701,19 @@
         <v>1</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>66</v>
@@ -6684,16 +6724,16 @@
         <v>2</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>201</v>
-      </c>
       <c r="D13" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F13" s="8">
         <v>0</v>
@@ -6712,14 +6752,14 @@
       <c r="B16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14" t="s">
+      <c r="D16" s="16"/>
+      <c r="E16" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="14"/>
+      <c r="F16" s="16"/>
       <c r="G16" s="9" t="s">
         <v>18</v>
       </c>
@@ -6729,38 +6769,38 @@
         <v>1</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="F17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="14"/>
       <c r="G17" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C8:G8"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C8:G8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6792,37 +6832,37 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -6840,37 +6880,37 @@
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -6911,16 +6951,16 @@
         <v>69</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -6934,16 +6974,16 @@
         <v>70</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -6957,16 +6997,16 @@
         <v>72</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -6980,16 +7020,16 @@
         <v>71</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -7003,16 +7043,16 @@
         <v>73</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -7026,16 +7066,16 @@
         <v>74</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -7049,16 +7089,16 @@
         <v>75</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -7072,16 +7112,16 @@
         <v>76</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -7095,16 +7135,16 @@
         <v>77</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -7119,14 +7159,14 @@
       <c r="B23" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14" t="s">
+      <c r="D23" s="16"/>
+      <c r="E23" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="14"/>
+      <c r="F23" s="16"/>
       <c r="G23" s="3" t="s">
         <v>18</v>
       </c>
@@ -7138,14 +7178,14 @@
       <c r="B24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13" t="s">
+      <c r="D24" s="14"/>
+      <c r="E24" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="13"/>
+      <c r="F24" s="14"/>
       <c r="G24" s="1" t="s">
         <v>79</v>
       </c>
@@ -7157,14 +7197,14 @@
       <c r="B25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13" t="s">
+      <c r="D25" s="14"/>
+      <c r="E25" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="13"/>
+      <c r="F25" s="14"/>
       <c r="G25" s="1" t="s">
         <v>78</v>
       </c>
@@ -7176,40 +7216,40 @@
       <c r="B26" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13" t="s">
+      <c r="D26" s="14"/>
+      <c r="E26" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="13"/>
+      <c r="F26" s="14"/>
       <c r="G26" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7222,10 +7262,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G29"/>
+  <dimension ref="A2:G30"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7241,37 +7281,37 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -7289,37 +7329,37 @@
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -7360,16 +7400,16 @@
         <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -7383,16 +7423,16 @@
         <v>46</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -7400,22 +7440,22 @@
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="D14" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -7429,16 +7469,16 @@
         <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -7452,16 +7492,16 @@
         <v>33</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -7469,163 +7509,180 @@
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="13">
+        <v>7</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C21" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14" t="s">
+      <c r="D21" s="16"/>
+      <c r="E21" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="3" t="s">
+      <c r="F21" s="16"/>
+      <c r="G21" s="3" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="1">
-        <v>1</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13" t="s">
+      <c r="C22" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="13"/>
+      <c r="F22" s="14"/>
       <c r="G22" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
+        <v>2</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
         <v>3</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C24" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13" t="s">
+      <c r="D24" s="14"/>
+      <c r="E24" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="1" t="s">
+      <c r="F24" s="14"/>
+      <c r="G24" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C27" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14" t="s">
+      <c r="D27" s="16"/>
+      <c r="E27" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="3" t="s">
+      <c r="F27" s="16"/>
+      <c r="G27" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="1">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
         <v>1</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C28" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13" t="s">
+      <c r="D28" s="14"/>
+      <c r="E28" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>213</v>
+      <c r="F28" s="14"/>
+      <c r="G28" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
@@ -7633,10 +7690,16 @@
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7651,8 +7714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G22"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView view="pageLayout" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7668,37 +7731,37 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -7716,37 +7779,37 @@
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -7781,22 +7844,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -7810,16 +7873,16 @@
         <v>67</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -7833,16 +7896,16 @@
         <v>63</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -7856,16 +7919,16 @@
         <v>64</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -7880,14 +7943,14 @@
       <c r="B18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="14"/>
+      <c r="F18" s="16"/>
       <c r="G18" s="3" t="s">
         <v>18</v>
       </c>
@@ -7897,16 +7960,16 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C19" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13" t="s">
+      <c r="D19" s="14"/>
+      <c r="E19" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="13"/>
+      <c r="F19" s="14"/>
       <c r="G19" s="1" t="s">
         <v>84</v>
       </c>
@@ -7918,31 +7981,25 @@
       <c r="B20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13" t="s">
+      <c r="D20" s="14"/>
+      <c r="E20" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="13"/>
+      <c r="F20" s="14"/>
       <c r="G20" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
@@ -7950,6 +8007,12 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7981,37 +8044,37 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -8029,37 +8092,37 @@
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -8101,16 +8164,16 @@
         <v>93</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -8124,16 +8187,16 @@
         <v>69</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -8147,16 +8210,16 @@
         <v>97</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
@@ -8170,16 +8233,16 @@
         <v>101</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
@@ -8193,16 +8256,16 @@
         <v>98</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -8216,16 +8279,16 @@
         <v>99</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -8239,16 +8302,16 @@
         <v>100</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -8262,16 +8325,16 @@
         <v>102</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -8285,16 +8348,16 @@
         <v>94</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -8308,16 +8371,16 @@
         <v>95</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -8331,16 +8394,16 @@
         <v>96</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -8355,14 +8418,14 @@
       <c r="B25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14" t="s">
+      <c r="D25" s="16"/>
+      <c r="E25" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="14"/>
+      <c r="F25" s="16"/>
       <c r="G25" s="3" t="s">
         <v>18</v>
       </c>
@@ -8374,36 +8437,36 @@
       <c r="B26" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13" t="s">
+      <c r="D26" s="14"/>
+      <c r="E26" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="13"/>
+      <c r="F26" s="14"/>
       <c r="G26" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8418,8 +8481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G24"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView view="pageLayout" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8435,37 +8498,37 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -8483,37 +8546,37 @@
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -8548,22 +8611,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>107</v>
+        <v>211</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G12" s="21" t="s">
         <v>212</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -8571,22 +8634,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -8600,16 +8663,16 @@
         <v>63</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -8623,16 +8686,16 @@
         <v>108</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -8646,16 +8709,16 @@
         <v>109</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -8663,22 +8726,22 @@
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>110</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>212</v>
+        <v>201</v>
+      </c>
+      <c r="F17" s="21">
+        <v>0</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -8693,14 +8756,14 @@
       <c r="B20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14" t="s">
+      <c r="D20" s="16"/>
+      <c r="E20" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="14"/>
+      <c r="F20" s="16"/>
       <c r="G20" s="3" t="s">
         <v>18</v>
       </c>
@@ -8712,16 +8775,16 @@
       <c r="B21" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13" t="s">
+      <c r="D21" s="14"/>
+      <c r="E21" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="13"/>
+      <c r="F21" s="14"/>
       <c r="G21" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -8731,31 +8794,25 @@
       <c r="B22" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13" t="s">
+      <c r="D22" s="14"/>
+      <c r="E22" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="13"/>
+      <c r="F22" s="14"/>
       <c r="G22" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
@@ -8763,6 +8820,12 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8777,7 +8840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G19"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -8794,37 +8857,37 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -8842,37 +8905,37 @@
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -8913,16 +8976,16 @@
         <v>118</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -8936,16 +8999,16 @@
         <v>119</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -8960,14 +9023,14 @@
       <c r="B16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="18" t="s">
+      <c r="D16" s="20"/>
+      <c r="E16" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="19"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="3" t="s">
         <v>18</v>
       </c>
@@ -8979,36 +9042,36 @@
       <c r="B17" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="16" t="s">
+      <c r="D17" s="18"/>
+      <c r="E17" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="F17" s="17"/>
+      <c r="F17" s="18"/>
       <c r="G17" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9040,37 +9103,37 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="C3" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -9088,37 +9151,37 @@
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -9153,22 +9216,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -9176,22 +9239,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -9199,22 +9262,22 @@
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -9222,27 +9285,27 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -9268,8 +9331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G25"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView view="pageLayout" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9285,37 +9348,37 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -9333,37 +9396,37 @@
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -9398,22 +9461,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -9427,16 +9490,16 @@
         <v>45</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -9450,16 +9513,16 @@
         <v>67</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -9467,22 +9530,22 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -9490,22 +9553,22 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -9513,22 +9576,22 @@
         <v>6</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -9536,22 +9599,22 @@
         <v>7</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="F18" s="7">
         <v>3</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -9566,14 +9629,14 @@
       <c r="B21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14" t="s">
+      <c r="D21" s="16"/>
+      <c r="E21" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="14"/>
+      <c r="F21" s="16"/>
       <c r="G21" s="3" t="s">
         <v>18</v>
       </c>
@@ -9583,18 +9646,18 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -9604,31 +9667,25 @@
       <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13" t="s">
+      <c r="D23" s="14"/>
+      <c r="E23" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="13"/>
+      <c r="F23" s="14"/>
       <c r="G23" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
@@ -9636,6 +9693,12 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DB設計書.xlsx
+++ b/DB設計書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\森永製品ネット販売システム\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="20475" windowHeight="9840" activeTab="6"/>
+    <workbookView xWindow="600" yWindow="105" windowWidth="20475" windowHeight="9840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="E-R図 " sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="221">
   <si>
     <t>　　森永製品ネット販売システム</t>
     <rPh sb="2" eb="4">
@@ -1247,10 +1247,6 @@
   </si>
   <si>
     <t>(PK)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>(FK)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1437,14 +1433,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1457,9 +1456,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6588,85 +6584,85 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -6771,14 +6767,14 @@
       <c r="B17" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14" t="s">
+      <c r="D17" s="15"/>
+      <c r="E17" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="F17" s="14"/>
+      <c r="F17" s="15"/>
       <c r="G17" s="8" t="s">
         <v>199</v>
       </c>
@@ -6790,17 +6786,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C8:G8"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C8:G8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6832,85 +6828,85 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -7178,14 +7174,14 @@
       <c r="B24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14" t="s">
+      <c r="D24" s="15"/>
+      <c r="E24" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="14"/>
+      <c r="F24" s="15"/>
       <c r="G24" s="1" t="s">
         <v>79</v>
       </c>
@@ -7197,14 +7193,14 @@
       <c r="B25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14" t="s">
+      <c r="D25" s="15"/>
+      <c r="E25" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="14"/>
+      <c r="F25" s="15"/>
       <c r="G25" s="1" t="s">
         <v>78</v>
       </c>
@@ -7216,14 +7212,14 @@
       <c r="B26" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14" t="s">
+      <c r="D26" s="15"/>
+      <c r="E26" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="14"/>
+      <c r="F26" s="15"/>
       <c r="G26" s="1" t="s">
         <v>80</v>
       </c>
@@ -7235,21 +7231,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7281,85 +7277,85 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -7532,22 +7528,22 @@
         <v>7</v>
       </c>
       <c r="B18" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="D18" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="E18" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="G18" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -7581,14 +7577,14 @@
       <c r="B22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14" t="s">
+      <c r="D22" s="15"/>
+      <c r="E22" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="14"/>
+      <c r="F22" s="15"/>
       <c r="G22" s="1" t="s">
         <v>79</v>
       </c>
@@ -7600,14 +7596,14 @@
       <c r="B23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14" t="s">
+      <c r="D23" s="15"/>
+      <c r="E23" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="14"/>
+      <c r="F23" s="15"/>
       <c r="G23" s="1" t="s">
         <v>83</v>
       </c>
@@ -7619,14 +7615,14 @@
       <c r="B24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14" t="s">
+      <c r="D24" s="15"/>
+      <c r="E24" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="14"/>
+      <c r="F24" s="15"/>
       <c r="G24" s="1" t="s">
         <v>80</v>
       </c>
@@ -7662,14 +7658,14 @@
       <c r="B28" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14" t="s">
+      <c r="D28" s="15"/>
+      <c r="E28" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F28" s="14"/>
+      <c r="F28" s="15"/>
       <c r="G28" s="1" t="s">
         <v>123</v>
       </c>
@@ -7681,6 +7677,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="C2:G2"/>
@@ -7694,12 +7696,6 @@
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7731,85 +7727,85 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -7882,7 +7878,7 @@
         <v>208</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -7905,7 +7901,7 @@
         <v>208</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -7962,14 +7958,14 @@
       <c r="B19" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14" t="s">
+      <c r="D19" s="15"/>
+      <c r="E19" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="14"/>
+      <c r="F19" s="15"/>
       <c r="G19" s="1" t="s">
         <v>84</v>
       </c>
@@ -7981,14 +7977,14 @@
       <c r="B20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14" t="s">
+      <c r="D20" s="15"/>
+      <c r="E20" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="14"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="1" t="s">
         <v>85</v>
       </c>
@@ -8000,6 +7996,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
@@ -8007,12 +8009,6 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8044,85 +8040,85 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -8437,14 +8433,14 @@
       <c r="B26" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14" t="s">
+      <c r="D26" s="15"/>
+      <c r="E26" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="14"/>
+      <c r="F26" s="15"/>
       <c r="G26" s="1" t="s">
         <v>83</v>
       </c>
@@ -8456,17 +8452,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8481,8 +8477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G24"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8498,85 +8494,85 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -8625,7 +8621,7 @@
       <c r="F12" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="14" t="s">
         <v>212</v>
       </c>
     </row>
@@ -8648,7 +8644,7 @@
       <c r="F13" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="14" t="s">
         <v>213</v>
       </c>
     </row>
@@ -8671,8 +8667,8 @@
       <c r="F14" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="G14" s="21" t="s">
-        <v>214</v>
+      <c r="G14" s="14" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -8737,7 +8733,7 @@
       <c r="E17" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="14">
         <v>0</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -8775,14 +8771,14 @@
       <c r="B21" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14" t="s">
+      <c r="D21" s="15"/>
+      <c r="E21" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="14"/>
+      <c r="F21" s="15"/>
       <c r="G21" s="1" t="s">
         <v>124</v>
       </c>
@@ -8794,14 +8790,14 @@
       <c r="B22" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14" t="s">
+      <c r="D22" s="15"/>
+      <c r="E22" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="14"/>
+      <c r="F22" s="15"/>
       <c r="G22" s="1" t="s">
         <v>125</v>
       </c>
@@ -8813,6 +8809,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
@@ -8820,12 +8822,6 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8840,7 +8836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -8857,85 +8853,85 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -9023,14 +9019,14 @@
       <c r="B16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="19" t="s">
+      <c r="D16" s="21"/>
+      <c r="E16" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="20"/>
+      <c r="F16" s="21"/>
       <c r="G16" s="3" t="s">
         <v>18</v>
       </c>
@@ -9042,14 +9038,14 @@
       <c r="B17" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="17" t="s">
+      <c r="D17" s="19"/>
+      <c r="E17" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="F17" s="18"/>
+      <c r="F17" s="19"/>
       <c r="G17" s="1" t="s">
         <v>85</v>
       </c>
@@ -9061,17 +9057,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C8:G8"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C8:G8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9103,85 +9099,85 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -9348,85 +9344,85 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="C4" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -9648,14 +9644,14 @@
       <c r="B22" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14" t="s">
+      <c r="D22" s="15"/>
+      <c r="E22" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="F22" s="14"/>
+      <c r="F22" s="15"/>
       <c r="G22" s="1" t="s">
         <v>132</v>
       </c>
@@ -9667,14 +9663,14 @@
       <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14" t="s">
+      <c r="D23" s="15"/>
+      <c r="E23" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="14"/>
+      <c r="F23" s="15"/>
       <c r="G23" s="1" t="s">
         <v>125</v>
       </c>
@@ -9686,6 +9682,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
@@ -9693,12 +9695,6 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DB設計書.xlsx
+++ b/DB設計書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="20475" windowHeight="9840" activeTab="5"/>
+    <workbookView xWindow="600" yWindow="105" windowWidth="20475" windowHeight="9840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="E-R図 " sheetId="4" r:id="rId1"/>
@@ -597,10 +597,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Order</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>注文データが格納されている。</t>
     <rPh sb="0" eb="2">
       <t>チュウモン</t>
@@ -1281,6 +1277,10 @@
   </si>
   <si>
     <t>Review</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Buy</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1439,11 +1439,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -6597,7 +6597,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
@@ -6609,7 +6609,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
@@ -6620,13 +6620,13 @@
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
+      <c r="C5" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
@@ -6657,7 +6657,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -6697,19 +6697,19 @@
         <v>1</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>66</v>
@@ -6720,16 +6720,16 @@
         <v>2</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F13" s="8">
         <v>0</v>
@@ -6748,14 +6748,14 @@
       <c r="B16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16" t="s">
+      <c r="D16" s="17"/>
+      <c r="E16" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="16"/>
+      <c r="F16" s="17"/>
       <c r="G16" s="9" t="s">
         <v>18</v>
       </c>
@@ -6765,38 +6765,38 @@
         <v>1</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>58</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C8:G8"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C8:G8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6864,13 +6864,13 @@
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
@@ -6947,16 +6947,16 @@
         <v>69</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -6970,16 +6970,16 @@
         <v>70</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -6993,16 +6993,16 @@
         <v>72</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -7016,16 +7016,16 @@
         <v>71</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -7039,16 +7039,16 @@
         <v>73</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -7062,16 +7062,16 @@
         <v>74</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -7085,16 +7085,16 @@
         <v>75</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -7108,16 +7108,16 @@
         <v>76</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -7125,22 +7125,22 @@
         <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -7155,14 +7155,14 @@
       <c r="B23" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16" t="s">
+      <c r="D23" s="17"/>
+      <c r="E23" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="16"/>
+      <c r="F23" s="17"/>
       <c r="G23" s="3" t="s">
         <v>18</v>
       </c>
@@ -7226,26 +7226,26 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7313,13 +7313,13 @@
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
@@ -7396,16 +7396,16 @@
         <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -7419,16 +7419,16 @@
         <v>46</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -7436,22 +7436,22 @@
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="D14" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -7465,16 +7465,16 @@
         <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -7488,16 +7488,16 @@
         <v>33</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -7505,22 +7505,22 @@
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -7528,22 +7528,22 @@
         <v>7</v>
       </c>
       <c r="B18" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="D18" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="E18" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>219</v>
-      </c>
       <c r="G18" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -7558,14 +7558,14 @@
       <c r="B21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16" t="s">
+      <c r="D21" s="17"/>
+      <c r="E21" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="16"/>
+      <c r="F21" s="17"/>
       <c r="G21" s="3" t="s">
         <v>18</v>
       </c>
@@ -7639,14 +7639,14 @@
       <c r="B27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16" t="s">
+      <c r="D27" s="17"/>
+      <c r="E27" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="16"/>
+      <c r="F27" s="17"/>
       <c r="G27" s="3" t="s">
         <v>18</v>
       </c>
@@ -7667,22 +7667,16 @@
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="C2:G2"/>
@@ -7696,6 +7690,12 @@
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7763,13 +7763,13 @@
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
@@ -7800,7 +7800,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -7840,22 +7840,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="D12" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>204</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -7869,16 +7869,16 @@
         <v>67</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -7892,16 +7892,16 @@
         <v>63</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -7915,16 +7915,16 @@
         <v>64</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -7939,14 +7939,14 @@
       <c r="B18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16" t="s">
+      <c r="D18" s="17"/>
+      <c r="E18" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="16"/>
+      <c r="F18" s="17"/>
       <c r="G18" s="3" t="s">
         <v>18</v>
       </c>
@@ -7956,7 +7956,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>2</v>
@@ -7991,17 +7991,11 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
@@ -8009,6 +8003,12 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8023,8 +8023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J28"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8065,7 +8065,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>86</v>
+        <v>220</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
@@ -8076,13 +8076,13 @@
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
@@ -8113,7 +8113,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -8154,22 +8154,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -8183,16 +8183,16 @@
         <v>69</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -8203,19 +8203,19 @@
         <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
@@ -8223,22 +8223,22 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
@@ -8249,19 +8249,19 @@
         <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -8272,19 +8272,19 @@
         <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -8295,19 +8295,19 @@
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -8315,22 +8315,22 @@
         <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -8341,19 +8341,19 @@
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -8361,22 +8361,22 @@
         <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -8384,22 +8384,22 @@
         <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -8414,14 +8414,14 @@
       <c r="B25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16" t="s">
+      <c r="D25" s="17"/>
+      <c r="E25" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="16"/>
+      <c r="F25" s="17"/>
       <c r="G25" s="3" t="s">
         <v>18</v>
       </c>
@@ -8431,14 +8431,14 @@
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>59</v>
       </c>
       <c r="D26" s="15"/>
       <c r="E26" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="1" t="s">
@@ -8447,22 +8447,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8477,7 +8477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -8519,7 +8519,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
@@ -8530,13 +8530,13 @@
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
@@ -8567,7 +8567,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -8607,22 +8607,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>211</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -8630,22 +8630,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -8659,16 +8659,16 @@
         <v>63</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -8679,19 +8679,19 @@
         <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -8702,19 +8702,19 @@
         <v>62</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -8722,22 +8722,22 @@
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F17" s="14">
         <v>0</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -8752,14 +8752,14 @@
       <c r="B20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16" t="s">
+      <c r="D20" s="17"/>
+      <c r="E20" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="16"/>
+      <c r="F20" s="17"/>
       <c r="G20" s="3" t="s">
         <v>18</v>
       </c>
@@ -8769,18 +8769,18 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>57</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -8788,7 +8788,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>41</v>
@@ -8799,22 +8799,16 @@
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
@@ -8822,6 +8816,12 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8866,7 +8866,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
@@ -8878,7 +8878,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
@@ -8889,13 +8889,13 @@
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
@@ -8926,7 +8926,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -8969,19 +8969,19 @@
         <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -8989,22 +8989,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -9036,14 +9036,14 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="1" t="s">
@@ -9052,22 +9052,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C8:G8"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C8:G8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9112,7 +9112,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
@@ -9124,7 +9124,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
@@ -9135,13 +9135,13 @@
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
@@ -9172,7 +9172,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -9212,22 +9212,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -9235,22 +9235,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -9258,22 +9258,22 @@
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -9281,27 +9281,27 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -9369,7 +9369,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
@@ -9380,13 +9380,13 @@
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
@@ -9417,7 +9417,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -9457,22 +9457,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -9486,16 +9486,16 @@
         <v>45</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -9509,16 +9509,16 @@
         <v>67</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -9526,22 +9526,22 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -9549,22 +9549,22 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -9572,22 +9572,22 @@
         <v>6</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -9595,22 +9595,22 @@
         <v>7</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="E18" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="F18" s="7">
         <v>3</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -9625,14 +9625,14 @@
       <c r="B21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16" t="s">
+      <c r="D21" s="17"/>
+      <c r="E21" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="16"/>
+      <c r="F21" s="17"/>
       <c r="G21" s="3" t="s">
         <v>18</v>
       </c>
@@ -9642,18 +9642,18 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -9672,22 +9672,16 @@
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
@@ -9695,6 +9689,12 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
